--- a/biology/Botanique/Liste_rouge_des_plantes_de_Suisse/Liste_rouge_des_plantes_de_Suisse.xlsx
+++ b/biology/Botanique/Liste_rouge_des_plantes_de_Suisse/Liste_rouge_des_plantes_de_Suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste rouge des plantes de Suisse est une liste établie au niveau national et régional ayant pour but de montrer la situation actuelle de menace pesant sur les espèces. Cette liste est réalisée et publiée par l'Office fédéral de l’environnement, des forêts et du paysage (OFEFP) en 2002[1]. Elle constitue la partie suisse de la liste rouge de l'UICN. Depuis 2011, Info Flora effectue la révision de cette liste rouge sur mandat de l'Office fédéral de l'environnement (OFEV)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste rouge des plantes de Suisse est une liste établie au niveau national et régional ayant pour but de montrer la situation actuelle de menace pesant sur les espèces. Cette liste est réalisée et publiée par l'Office fédéral de l’environnement, des forêts et du paysage (OFEFP) en 2002. Elle constitue la partie suisse de la liste rouge de l'UICN. Depuis 2011, Info Flora effectue la révision de cette liste rouge sur mandat de l'Office fédéral de l'environnement (OFEV).
 </t>
         </is>
       </c>
@@ -513,20 +525,93 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taxons en danger critique (CR)
-Chara polyacantha
+          <t>Taxons en danger critique (CR)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chara polyacantha
 Chara tenuispina
 Nitella tenuissima
-Nitella flexilis
-Taxon en danger (EN)
-Chara intermedia
+Nitella flexilis</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Characeae[3]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxon en danger (EN)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chara intermedia
 Chara strigosa
 Nitella gracilis
 Nitella mucronata
 Nitella syncarpa
-Tolypella glomerata
-Taxons vulnérables (VU)
-Chara aspera
+Tolypella glomerata</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Characeae[3]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons vulnérables (VU)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chara aspera
 Chara delicatula
 Chara hispida
 Chara vulgaris
@@ -535,33 +620,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Liste_rouge_des_plantes_de_Suisse</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Lichens[4]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taxons en danger critique (CR)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxons en danger critique (CR)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anaptychia bryorum
 Arthonia faginea
 Arthonia reniformis
@@ -607,7 +698,43 @@
 Thelenella modesta
 Usnea longissima
 Usnea cornuta
-Taxon en danger (EN)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lichens[4]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxon en danger (EN)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « aff. Biatoraareolata areolata »
 Agonimia octospora
 Arthonia apatetica
@@ -704,7 +831,43 @@
 Usnea madeirensis
 Usnea wasmuthii
 Zamenhofia hibernica
-Taxons vulnérables (VU)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lichens[4]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxons vulnérables (VU)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acarospora schleicheri
 « aff. Lecaniacyrtellina cyrtellina »
 « aff. Pyrrhosporaquernea quernea »
@@ -825,33 +988,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Liste_rouge_des_plantes_de_Suisse</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Bryophyta[5]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taxons en danger critique (CR)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Taxons en danger critique (CR)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acaulon muticum
 Aloina aloides
 Archidium alternifolium
@@ -913,7 +1082,43 @@
 Ulota coarctata
 Ulota rehmannii macrospora
 Weissia rutilans
-Taxon en danger (EN)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bryophyta[5]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxon en danger (EN)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anastrophyllum assimile
 Anastrophyllum hellerianum
 Anoectangium hornschuchianum
@@ -972,7 +1177,43 @@
 Tortula fragilis
 Tortula inermis
 Trematodon brevicollis
-Taxons vulnérables (VU)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bryophyta[5]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxons vulnérables (VU)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acaulon triquetrum
 Aloina brevirostris
 Amblyodon dealbatus
@@ -1259,33 +1500,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Liste_rouge_des_plantes_de_Suisse</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Spermatophyta[6]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taxons en danger critique (CR)
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Taxons en danger critique (CR)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Adonis annua
 Allium rotundum
 Ammi majus
@@ -1417,7 +1664,43 @@
 Vitis silvestris
 Vulpia bromoides
 Xeranthemum inapertum
-Taxon en danger (EN)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Spermatophyta[6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Taxon en danger (EN)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Achillea collina
 Aconitum anthora
 Adenophora liliifolia
@@ -1666,7 +1949,43 @@
 Potamogeton polygonifolius
 Verbascum chaixii
 Veronica prostrata
-Taxons vulnérables (VU)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_des_plantes_de_Suisse</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Spermatophyta[6]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Taxons vulnérables (VU)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aceras anthropophorum
 Achillea clavennae
 Aconitum variegatum
